--- a/data_excel/NSB.xlsx
+++ b/data_excel/NSB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>userAge</t>
   </si>
@@ -61,25 +61,642 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年龄不属于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF008800"/>
+    <t>年龄=25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄_-1缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhiMaScore</t>
+  </si>
+  <si>
+    <t>zhiMaIvsScore</t>
+  </si>
+  <si>
+    <t>hitTongDunRepeateLoanOneMonth</t>
+  </si>
+  <si>
+    <t>tongdunFinalScore</t>
+  </si>
+  <si>
+    <t>mobileMoxieDuration</t>
+  </si>
+  <si>
+    <t>ED0906</t>
+  </si>
+  <si>
+    <t>用户芝麻分_-1缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNHIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>[20,35]</t>
-    </r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED0905</t>
+  </si>
+  <si>
+    <t>UNHIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾风险分数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为空缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾风险分数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;20</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=20</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同盾1个月内多头借贷申请次数=50</t>
+  </si>
+  <si>
+    <t>同盾1个月内多头借贷申请次数&gt;50</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=83</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;83</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同盾7天内多头借贷申请次数&gt;20</t>
+  </si>
+  <si>
+    <t>同盾3个月内多头借贷申请次数&gt;83</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onlineTime</t>
+  </si>
+  <si>
+    <t>0-3个月</t>
+  </si>
+  <si>
+    <t>3-6个月</t>
+  </si>
+  <si>
+    <t>6-12个月</t>
+  </si>
+  <si>
+    <t>该号码已离网</t>
+  </si>
+  <si>
+    <t>0-6个月</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天行运营商入网时长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 0-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天行运营商入网时长 该号码已离网</t>
+  </si>
+  <si>
+    <t>天行运营商入网时长 0-6个月</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>手机使用时长不符合政策</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天行运营商入网时长 0-3个月</t>
+  </si>
+  <si>
+    <t>天行运营商入网时长 3-6个月</t>
+  </si>
+  <si>
+    <t>天行运营商入网时长 6-12个月</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机使用时长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED0608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机使用时长不符合政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天行运营商入网时长 6-12个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED0608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机使用时长不符合政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天行运营商入网时长 该号码已离网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED0608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机使用时长不符合政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天行运营商入网时长 0-6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天行运营商入网时长 3-6个月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -87,10 +704,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年龄=25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年龄=35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,33 +716,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年龄_-1缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄_为空缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhiMaScore</t>
-  </si>
-  <si>
-    <t>zhiMaIvsScore</t>
-  </si>
-  <si>
-    <t>hitTongDunRepeateLoanOneMonth</t>
-  </si>
-  <si>
-    <t>tongdunFinalScore</t>
-  </si>
-  <si>
-    <t>mobileMoxieDuration</t>
-  </si>
-  <si>
-    <t>用户芝麻分&lt;650</t>
-  </si>
-  <si>
-    <t>ED0906</t>
+    <t>年龄不属于[20,35]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾风险分数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=90</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾风险分数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;90</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾风险分数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;90</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户芝麻分=650</t>
@@ -140,836 +794,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户芝麻分_-1缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户芝麻分_为空缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNHIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户芝麻分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ED0905</t>
-  </si>
-  <si>
-    <t>UNHIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔蝎运营商入网时长&lt;12个月</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>魔蝎运营商入网时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾风险分数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾风险分数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>魔蝎运营商入网时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>魔蝎运营商入网时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NSB</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;20</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=20</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同盾1个月内多头借贷申请次数=50</t>
-  </si>
-  <si>
-    <t>同盾1个月内多头借贷申请次数&gt;50</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=83</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;83</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾风险分数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=90</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾风险分数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;90</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同盾7天内多头借贷申请次数&gt;20</t>
-  </si>
-  <si>
-    <t>同盾3个月内多头借贷申请次数&gt;83</t>
-  </si>
-  <si>
-    <t>同盾风险分数&gt;90</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;50</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天行运营商入网时长_为空缺失</t>
-  </si>
-  <si>
-    <t>天行在网时长为[0,360)</t>
-  </si>
-  <si>
-    <t>tianXingDuration</t>
-  </si>
-  <si>
-    <t>HIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天行运营商入网时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=180</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天行运营商入网时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=179</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天行运营商入网时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=0</t>
+      <t>&lt;650</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -978,7 +820,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,12 +874,25 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF008800"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFC41A16"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1064,13 +919,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1351,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1371,28 +1228,28 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -1406,7 +1263,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -1436,19 +1293,19 @@
         <v>360</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>12</v>
+      <c r="M2" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>25</v>
@@ -1478,19 +1335,19 @@
         <v>360</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>12</v>
+      <c r="M3" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>35</v>
@@ -1520,19 +1377,19 @@
         <v>360</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>12</v>
+      <c r="M4" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>19</v>
@@ -1562,20 +1419,20 @@
         <v>360</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>12</v>
+      <c r="M5" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>36</v>
@@ -1605,20 +1462,20 @@
         <v>360</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>12</v>
+      <c r="M6" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>-1</v>
@@ -1648,26 +1505,26 @@
         <v>360</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L7">
         <v>-1</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>12</v>
+      <c r="M7" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1691,26 +1548,25 @@
         <v>360</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W8" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
       <c r="C9">
-        <v>650</v>
+        <v>649.9</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1734,25 +1590,25 @@
         <v>360</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
       <c r="C10">
-        <v>649.9</v>
+        <v>-1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1776,31 +1632,31 @@
         <v>360</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
+      <c r="A11" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>650</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1818,31 +1674,31 @@
         <v>360</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
+      <c r="A12" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>650</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1860,19 +1716,19 @@
         <v>360</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -1884,7 +1740,7 @@
         <v>65</v>
       </c>
       <c r="E13">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1902,19 +1758,19 @@
         <v>360</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -1926,10 +1782,10 @@
         <v>65</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1944,19 +1800,19 @@
         <v>360</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -1968,10 +1824,10 @@
         <v>65</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1986,19 +1842,19 @@
         <v>360</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15">
-        <v>-1</v>
+        <v>29</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -2010,10 +1866,10 @@
         <v>65</v>
       </c>
       <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
         <v>-1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2028,19 +1884,19 @@
         <v>360</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L16">
         <v>-1</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -2055,10 +1911,10 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2070,19 +1926,19 @@
         <v>360</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -2097,10 +1953,10 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2112,19 +1968,19 @@
         <v>360</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="X18" s="3"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -2139,10 +1995,10 @@
         <v>5</v>
       </c>
       <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
         <v>-1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2154,19 +2010,19 @@
         <v>360</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L19">
         <v>-1</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -2181,13 +2037,13 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2196,19 +2052,20 @@
         <v>360</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20">
-        <v>-1</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="W20" s="2"/>
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2226,10 +2083,10 @@
         <v>8</v>
       </c>
       <c r="G21">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2238,19 +2095,19 @@
         <v>360</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -2268,10 +2125,10 @@
         <v>8</v>
       </c>
       <c r="G22">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2280,19 +2137,19 @@
         <v>360</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="L22">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -2310,10 +2167,10 @@
         <v>8</v>
       </c>
       <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23">
         <v>-1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2322,19 +2179,19 @@
         <v>360</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L23">
         <v>-1</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>56</v>
+      <c r="M23" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -2352,31 +2209,32 @@
         <v>8</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>360</v>
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>41</v>
       </c>
       <c r="K24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L24">
-        <v>-1</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="W24" s="2"/>
       <c r="X24" s="3"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -2397,29 +2255,29 @@
         <v>12</v>
       </c>
       <c r="H25">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>360</v>
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>41</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>57</v>
+        <v>29</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="3"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B26">
         <v>20</v>
@@ -2440,28 +2298,28 @@
         <v>12</v>
       </c>
       <c r="H26">
-        <v>90.1</v>
+        <v>25</v>
       </c>
       <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>360</v>
+        <v>11</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="X26" s="3"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>20</v>
@@ -2482,28 +2340,28 @@
         <v>12</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>360</v>
+        <v>11</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27">
-        <v>-1</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>57</v>
+        <v>29</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="X27" s="3"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>20</v>
@@ -2524,28 +2382,28 @@
         <v>12</v>
       </c>
       <c r="H28">
+        <v>25</v>
+      </c>
+      <c r="I28">
         <v>-1</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>360</v>
+      <c r="J28" t="s">
+        <v>43</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
-      </c>
-      <c r="L28">
-        <v>-1</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>57</v>
+        <v>29</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="X28" s="3"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>20</v>
@@ -2569,26 +2427,25 @@
         <v>25</v>
       </c>
       <c r="I29">
-        <v>12</v>
-      </c>
-      <c r="J29">
-        <v>360</v>
+        <v>-1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>43</v>
       </c>
       <c r="K29" t="s">
-        <v>46</v>
-      </c>
-      <c r="L29" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="X29" s="3"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>20</v>
@@ -2612,25 +2469,25 @@
         <v>25</v>
       </c>
       <c r="I30">
-        <v>11</v>
-      </c>
-      <c r="J30">
-        <v>360</v>
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="X30" s="3"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2654,25 +2511,25 @@
         <v>25</v>
       </c>
       <c r="I31">
-        <v>-1</v>
-      </c>
-      <c r="J31">
-        <v>360</v>
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>45</v>
       </c>
       <c r="K31" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31">
-        <v>-1</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="X31" s="3"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>45</v>
+      <c r="A32" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -2696,25 +2553,26 @@
         <v>25</v>
       </c>
       <c r="I32">
-        <v>-1</v>
-      </c>
-      <c r="J32">
-        <v>360</v>
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>44</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32">
-        <v>-1</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W32" s="2"/>
       <c r="X32" s="3"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>63</v>
+      <c r="A33" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B33">
         <v>20</v>
@@ -2740,24 +2598,24 @@
       <c r="I33">
         <v>12</v>
       </c>
-      <c r="J33">
-        <v>360</v>
+      <c r="J33" t="s">
+        <v>44</v>
       </c>
       <c r="K33" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="3"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>64</v>
+      <c r="A34" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B34">
         <v>20</v>
@@ -2781,104 +2639,30 @@
         <v>25</v>
       </c>
       <c r="I34">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J34">
-        <v>359</v>
+        <v>-1</v>
       </c>
       <c r="K34" t="s">
-        <v>46</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>62</v>
+        <v>29</v>
+      </c>
+      <c r="L34" s="2">
+        <v>-1</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="X34" s="3"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35">
-        <v>20</v>
-      </c>
-      <c r="C35">
-        <v>650</v>
-      </c>
-      <c r="D35">
-        <v>65</v>
-      </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="F35">
-        <v>8</v>
-      </c>
-      <c r="G35">
-        <v>12</v>
-      </c>
-      <c r="H35">
-        <v>25</v>
-      </c>
-      <c r="I35">
-        <v>-1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" t="s">
-        <v>46</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="X35" s="3"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36">
-        <v>20</v>
-      </c>
-      <c r="C36">
-        <v>650</v>
-      </c>
-      <c r="D36">
-        <v>65</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
-      </c>
-      <c r="F36">
-        <v>8</v>
-      </c>
-      <c r="G36">
-        <v>12</v>
-      </c>
-      <c r="H36">
-        <v>25</v>
-      </c>
-      <c r="I36">
-        <v>-1</v>
-      </c>
-      <c r="J36">
-        <v>-1</v>
-      </c>
-      <c r="K36" t="s">
-        <v>46</v>
-      </c>
-      <c r="L36">
-        <v>-1</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="X36" s="3"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
@@ -2900,7 +2684,7 @@
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="X40" s="3"/>
+      <c r="X40" s="4"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
@@ -2963,7 +2747,7 @@
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="X52" s="4"/>
+      <c r="X52" s="3"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
@@ -2984,23 +2768,19 @@
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="X56" s="3"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="W57" s="2"/>
-      <c r="X57" s="3"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="X58" s="3"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="X59" s="3"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
@@ -3022,19 +2802,23 @@
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
+      <c r="X64" s="3"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="W65" s="2"/>
+      <c r="X65" s="3"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
+      <c r="X66" s="3"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
+      <c r="X67" s="3"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
@@ -3060,69 +2844,48 @@
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="X72" s="3"/>
+      <c r="X72" s="4"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="W73" s="2"/>
-      <c r="X73" s="3"/>
+      <c r="X73" s="4"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
-      <c r="X74" s="3"/>
+      <c r="X74" s="4"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-      <c r="X75" s="3"/>
+      <c r="X75" s="4"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="X76" s="4"/>
+      <c r="X76" s="3"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="4"/>
+      <c r="X77" s="3"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="X78" s="4"/>
+      <c r="X78" s="3"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="X79" s="4"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="X79" s="3"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="X80" s="3"/>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="X81" s="3"/>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="X83" s="3"/>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="X84" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
